--- a/flows/GOVZ_fund_flow_data.xlsx
+++ b/flows/GOVZ_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2525,6 +2525,96 @@
         <v>1.93272</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2.39235</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.47612</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1.515195</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1.01758</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2.00876</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>-5.13105</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/flows/GOVZ_fund_flow_data.xlsx
+++ b/flows/GOVZ_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2615,6 +2615,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1.01879</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.51444</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
